--- a/resources/experiment 2/metrics/MAPE/average time/Ictus.xlsx
+++ b/resources/experiment 2/metrics/MAPE/average time/Ictus.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09873455969430113</v>
+        <v>73758936550105.94</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09873455969430113</v>
+        <v>54669803495241.19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09873455969430113</v>
+        <v>699264329849554.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>412738220861656.8</v>
+        <v>0.04225674932233511</v>
       </c>
       <c r="C4" t="n">
-        <v>412738220861656.8</v>
+        <v>0.04101156979433512</v>
       </c>
       <c r="D4" t="n">
-        <v>412738220861656.8</v>
+        <v>292692101483443.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12133298172129.11</v>
+        <v>130444170256473.6</v>
       </c>
       <c r="C5" t="n">
-        <v>12133298172129.11</v>
+        <v>23853589868413.27</v>
       </c>
       <c r="D5" t="n">
-        <v>12133298172129.11</v>
+        <v>253807614762507.3</v>
       </c>
     </row>
   </sheetData>
